--- a/PandasStudy/user_data.xlsx
+++ b/PandasStudy/user_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ユーザーID</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>血液型</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>ポイント</t>
   </si>
   <si>
     <t>佐藤</t>
@@ -325,61 +331,91 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>21.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2900.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>30.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3400.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>45.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>16.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5100.0</v>
       </c>
     </row>
   </sheetData>
